--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -537,52 +537,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H2">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I2">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J2">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.164466719958153</v>
+        <v>0.1750253333333333</v>
       </c>
       <c r="N2">
-        <v>0.164466719958153</v>
+        <v>0.525076</v>
       </c>
       <c r="O2">
-        <v>0.734413835477825</v>
+        <v>0.655128508251241</v>
       </c>
       <c r="P2">
-        <v>0.734413835477825</v>
+        <v>0.7402223729081171</v>
       </c>
       <c r="Q2">
-        <v>0.2486015632190447</v>
+        <v>0.2667436837346667</v>
       </c>
       <c r="R2">
-        <v>0.2486015632190447</v>
+        <v>1.600462102408</v>
       </c>
       <c r="S2">
-        <v>0.0689946708788057</v>
+        <v>0.05915944176989762</v>
       </c>
       <c r="T2">
-        <v>0.0689946708788057</v>
+        <v>0.05082862146087881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.51156150789837</v>
+        <v>1.524029</v>
       </c>
       <c r="H3">
-        <v>1.51156150789837</v>
+        <v>3.048058</v>
       </c>
       <c r="I3">
-        <v>0.09394522208846505</v>
+        <v>0.09030204154573296</v>
       </c>
       <c r="J3">
-        <v>0.09394522208846505</v>
+        <v>0.06866669168778029</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.059476119913794</v>
+        <v>0.09213650000000001</v>
       </c>
       <c r="N3">
-        <v>0.059476119913794</v>
+        <v>0.184273</v>
       </c>
       <c r="O3">
-        <v>0.2655861645221749</v>
+        <v>0.3448714917487591</v>
       </c>
       <c r="P3">
-        <v>0.2655861645221749</v>
+        <v>0.2597776270918828</v>
       </c>
       <c r="Q3">
-        <v>0.08990181350083873</v>
+        <v>0.1404186979585</v>
       </c>
       <c r="R3">
-        <v>0.08990181350083873</v>
+        <v>0.561674791834</v>
       </c>
       <c r="S3">
-        <v>0.02495055120965934</v>
+        <v>0.03114259977583534</v>
       </c>
       <c r="T3">
-        <v>0.02495055120965934</v>
+        <v>0.01783807022690148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H4">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I4">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J4">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.164466719958153</v>
+        <v>0.1750253333333333</v>
       </c>
       <c r="N4">
-        <v>0.164466719958153</v>
+        <v>0.525076</v>
       </c>
       <c r="O4">
-        <v>0.734413835477825</v>
+        <v>0.655128508251241</v>
       </c>
       <c r="P4">
-        <v>0.734413835477825</v>
+        <v>0.7402223729081171</v>
       </c>
       <c r="Q4">
-        <v>1.290027050499969</v>
+        <v>1.488218531166667</v>
       </c>
       <c r="R4">
-        <v>1.290027050499969</v>
+        <v>13.3939667805</v>
       </c>
       <c r="S4">
-        <v>0.3580226552943226</v>
+        <v>0.3300628389874591</v>
       </c>
       <c r="T4">
-        <v>0.3580226552943226</v>
+        <v>0.4253751877794025</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.84369658997397</v>
+        <v>8.502875000000001</v>
       </c>
       <c r="H5">
-        <v>7.84369658997397</v>
+        <v>25.508625</v>
       </c>
       <c r="I5">
-        <v>0.4874944316120973</v>
+        <v>0.5038138851085998</v>
       </c>
       <c r="J5">
-        <v>0.4874944316120973</v>
+        <v>0.5746586476550659</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.059476119913794</v>
+        <v>0.09213650000000001</v>
       </c>
       <c r="N5">
-        <v>0.059476119913794</v>
+        <v>0.184273</v>
       </c>
       <c r="O5">
-        <v>0.2655861645221749</v>
+        <v>0.3448714917487591</v>
       </c>
       <c r="P5">
-        <v>0.2655861645221749</v>
+        <v>0.2597776270918828</v>
       </c>
       <c r="Q5">
-        <v>0.4665126389527089</v>
+        <v>0.7834251424375002</v>
       </c>
       <c r="R5">
-        <v>0.4665126389527089</v>
+        <v>4.700550854625001</v>
       </c>
       <c r="S5">
-        <v>0.1294717763177746</v>
+        <v>0.1737510461211407</v>
       </c>
       <c r="T5">
-        <v>0.1294717763177746</v>
+        <v>0.1492834598756634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H6">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I6">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J6">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.164466719958153</v>
+        <v>0.1750253333333333</v>
       </c>
       <c r="N6">
-        <v>0.164466719958153</v>
+        <v>0.525076</v>
       </c>
       <c r="O6">
-        <v>0.734413835477825</v>
+        <v>0.655128508251241</v>
       </c>
       <c r="P6">
-        <v>0.734413835477825</v>
+        <v>0.7402223729081171</v>
       </c>
       <c r="Q6">
-        <v>0.06329176128703834</v>
+        <v>0.06809541452844445</v>
       </c>
       <c r="R6">
-        <v>0.06329176128703834</v>
+        <v>0.6128587307559999</v>
       </c>
       <c r="S6">
-        <v>0.01756543355075982</v>
+        <v>0.01510246336179318</v>
       </c>
       <c r="T6">
-        <v>0.01756543355075982</v>
+        <v>0.01946360640950074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.384830203357508</v>
+        <v>0.3890603333333333</v>
       </c>
       <c r="H7">
-        <v>0.384830203357508</v>
+        <v>1.167181</v>
       </c>
       <c r="I7">
-        <v>0.02391762341913314</v>
+        <v>0.02305267313447669</v>
       </c>
       <c r="J7">
-        <v>0.02391762341913314</v>
+        <v>0.02629426929239375</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.059476119913794</v>
+        <v>0.09213650000000001</v>
       </c>
       <c r="N7">
-        <v>0.059476119913794</v>
+        <v>0.184273</v>
       </c>
       <c r="O7">
-        <v>0.2655861645221749</v>
+        <v>0.3448714917487591</v>
       </c>
       <c r="P7">
-        <v>0.2655861645221749</v>
+        <v>0.2597776270918828</v>
       </c>
       <c r="Q7">
-        <v>0.02288820732134087</v>
+        <v>0.03584665740216667</v>
       </c>
       <c r="R7">
-        <v>0.02288820732134087</v>
+        <v>0.215079944413</v>
       </c>
       <c r="S7">
-        <v>0.006352189868373319</v>
+        <v>0.007950209772683519</v>
       </c>
       <c r="T7">
-        <v>0.006352189868373319</v>
+        <v>0.006830662882893009</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H8">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I8">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J8">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.164466719958153</v>
+        <v>0.1750253333333333</v>
       </c>
       <c r="N8">
-        <v>0.164466719958153</v>
+        <v>0.525076</v>
       </c>
       <c r="O8">
-        <v>0.734413835477825</v>
+        <v>0.655128508251241</v>
       </c>
       <c r="P8">
-        <v>0.734413835477825</v>
+        <v>0.7402223729081171</v>
       </c>
       <c r="Q8">
-        <v>0.07141414603684219</v>
+        <v>0.07844734621022223</v>
       </c>
       <c r="R8">
-        <v>0.07141414603684219</v>
+        <v>0.7060261158919999</v>
       </c>
       <c r="S8">
-        <v>0.01981964810720641</v>
+        <v>0.01739835464948817</v>
       </c>
       <c r="T8">
-        <v>0.01981964810720641</v>
+        <v>0.02242248293925591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.43421639377871</v>
+        <v>0.4482056666666667</v>
       </c>
       <c r="H9">
-        <v>0.43421639377871</v>
+        <v>1.344617</v>
       </c>
       <c r="I9">
-        <v>0.02698702985941344</v>
+        <v>0.02655716310671665</v>
       </c>
       <c r="J9">
-        <v>0.02698702985941344</v>
+        <v>0.0302915498908315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.059476119913794</v>
+        <v>0.09213650000000001</v>
       </c>
       <c r="N9">
-        <v>0.059476119913794</v>
+        <v>0.184273</v>
       </c>
       <c r="O9">
-        <v>0.2655861645221749</v>
+        <v>0.3448714917487591</v>
       </c>
       <c r="P9">
-        <v>0.2655861645221749</v>
+        <v>0.2597776270918828</v>
       </c>
       <c r="Q9">
-        <v>0.02582550630491775</v>
+        <v>0.04129610140683334</v>
       </c>
       <c r="R9">
-        <v>0.02582550630491775</v>
+        <v>0.247776608441</v>
       </c>
       <c r="S9">
-        <v>0.007167381752207024</v>
+        <v>0.00915880845722848</v>
       </c>
       <c r="T9">
-        <v>0.007167381752207024</v>
+        <v>0.007869066951575588</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H10">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I10">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J10">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.164466719958153</v>
+        <v>0.1750253333333333</v>
       </c>
       <c r="N10">
-        <v>0.164466719958153</v>
+        <v>0.525076</v>
       </c>
       <c r="O10">
-        <v>0.734413835477825</v>
+        <v>0.655128508251241</v>
       </c>
       <c r="P10">
-        <v>0.734413835477825</v>
+        <v>0.7402223729081171</v>
       </c>
       <c r="Q10">
-        <v>0.2099730466593937</v>
+        <v>0.2266586817933333</v>
       </c>
       <c r="R10">
-        <v>0.2099730466593937</v>
+        <v>2.03992813614</v>
       </c>
       <c r="S10">
-        <v>0.05827405532008003</v>
+        <v>0.05026923561771218</v>
       </c>
       <c r="T10">
-        <v>0.05827405532008003</v>
+        <v>0.06478549844026463</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.27669018214031</v>
+        <v>1.295005</v>
       </c>
       <c r="H11">
-        <v>1.27669018214031</v>
+        <v>3.885015</v>
       </c>
       <c r="I11">
-        <v>0.07934770902316364</v>
+        <v>0.07673187013628475</v>
       </c>
       <c r="J11">
-        <v>0.07934770902316364</v>
+        <v>0.08752167025935917</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.059476119913794</v>
+        <v>0.09213650000000001</v>
       </c>
       <c r="N11">
-        <v>0.059476119913794</v>
+        <v>0.184273</v>
       </c>
       <c r="O11">
-        <v>0.2655861645221749</v>
+        <v>0.3448714917487591</v>
       </c>
       <c r="P11">
-        <v>0.2655861645221749</v>
+        <v>0.2597776270918828</v>
       </c>
       <c r="Q11">
-        <v>0.07593257836574058</v>
+        <v>0.1193172281825</v>
       </c>
       <c r="R11">
-        <v>0.07593257836574058</v>
+        <v>0.7159033690950001</v>
       </c>
       <c r="S11">
-        <v>0.0210736537030836</v>
+        <v>0.02646263451857258</v>
       </c>
       <c r="T11">
-        <v>0.0210736537030836</v>
+        <v>0.02273617181909454</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H12">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I12">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J12">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.164466719958153</v>
+        <v>0.1750253333333333</v>
       </c>
       <c r="N12">
-        <v>0.164466719958153</v>
+        <v>0.525076</v>
       </c>
       <c r="O12">
-        <v>0.734413835477825</v>
+        <v>0.655128508251241</v>
       </c>
       <c r="P12">
-        <v>0.734413835477825</v>
+        <v>0.7402223729081171</v>
       </c>
       <c r="Q12">
-        <v>0.7629319928891488</v>
+        <v>0.8257416936386667</v>
       </c>
       <c r="R12">
-        <v>0.7629319928891488</v>
+        <v>4.954450161832</v>
       </c>
       <c r="S12">
-        <v>0.2117373723266503</v>
+        <v>0.1831361738648907</v>
       </c>
       <c r="T12">
-        <v>0.2117373723266503</v>
+        <v>0.1573469758788146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.6388229368426</v>
+        <v>4.717841</v>
       </c>
       <c r="H13">
-        <v>4.6388229368426</v>
+        <v>9.435682</v>
       </c>
       <c r="I13">
-        <v>0.2883079839977273</v>
+        <v>0.2795423669681891</v>
       </c>
       <c r="J13">
-        <v>0.2883079839977273</v>
+        <v>0.2125671712145694</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.059476119913794</v>
+        <v>0.09213650000000001</v>
       </c>
       <c r="N13">
-        <v>0.059476119913794</v>
+        <v>0.184273</v>
       </c>
       <c r="O13">
-        <v>0.2655861645221749</v>
+        <v>0.3448714917487591</v>
       </c>
       <c r="P13">
-        <v>0.2655861645221749</v>
+        <v>0.2597776270918828</v>
       </c>
       <c r="Q13">
-        <v>0.2758991892505085</v>
+        <v>0.4346853572965</v>
       </c>
       <c r="R13">
-        <v>0.2758991892505085</v>
+        <v>1.738741429186</v>
       </c>
       <c r="S13">
-        <v>0.07657061167107697</v>
+        <v>0.09640619310329843</v>
       </c>
       <c r="T13">
-        <v>0.07657061167107697</v>
+        <v>0.05522019533575483</v>
       </c>
     </row>
   </sheetData>
